--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEDDDC-DC39-4928-BA03-5FBA8449293F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727265F-A449-4B1D-9E80-E609504884D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0F556666-F9B4-4145-8D5A-97CE66C4248B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{0F556666-F9B4-4145-8D5A-97CE66C4248B}"/>
   </bookViews>
   <sheets>
     <sheet name="背景策划" sheetId="1" r:id="rId1"/>
     <sheet name="操作策划" sheetId="2" r:id="rId2"/>
     <sheet name="系统策划" sheetId="3" r:id="rId3"/>
-    <sheet name="场景策划" sheetId="4" r:id="rId4"/>
-    <sheet name="特殊玩法" sheetId="5" r:id="rId5"/>
+    <sheet name="特殊玩法" sheetId="5" r:id="rId4"/>
+    <sheet name="场景策划" sheetId="4" r:id="rId5"/>
+    <sheet name="美工策划" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>梦境精灵</t>
   </si>
@@ -151,18 +152,6 @@
     <t>梦境的守卫，驱除外来者</t>
   </si>
   <si>
-    <t>大学校园</t>
-  </si>
-  <si>
-    <t>考场</t>
-  </si>
-  <si>
-    <t>迷宫</t>
-  </si>
-  <si>
-    <t>超能力</t>
-  </si>
-  <si>
     <t>坠落</t>
   </si>
   <si>
@@ -205,24 +194,12 @@
     <t>颜色动态</t>
   </si>
   <si>
-    <t>监狱</t>
-  </si>
-  <si>
     <t>缤纷色彩世界</t>
   </si>
   <si>
-    <t>书本</t>
-  </si>
-  <si>
     <t>循环房间</t>
   </si>
   <si>
-    <t>压抑的气氛</t>
-  </si>
-  <si>
-    <t>气氛轻松，色彩鲜艳缤纷，存在主人从小喜欢的事，反映对童年的怀念怪物较少，解谜较多。</t>
-  </si>
-  <si>
     <t>没有尽头的宿舍走廊，要解谜才能突破</t>
   </si>
   <si>
@@ -233,13 +210,70 @@
   </si>
   <si>
     <t>压抑的气氛，怪物以书本、测验卷为主，反映其考试压力，也可以以数学符号为主做解谜和战斗</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>微信群通知，朋友圈po gpa，制造恐慌</t>
+  </si>
+  <si>
+    <t>考场、监狱</t>
+  </si>
+  <si>
+    <t>精灵</t>
+  </si>
+  <si>
+    <t>精灵移动动作</t>
+  </si>
+  <si>
+    <t>精灵攻击动作</t>
+  </si>
+  <si>
+    <t>气氛轻松，色彩鲜艳缤纷，存在主人从小喜欢的事，反映对童年的怀念怪物较少，解谜较多。（因为后面的梦境都比较压抑，这个可以拿来做新手关和营造反差感）</t>
+  </si>
+  <si>
+    <t>精灵跳跃动作</t>
+  </si>
+  <si>
+    <t>场景背景</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>时针</t>
+  </si>
+  <si>
+    <t>分针</t>
+  </si>
+  <si>
+    <t>秒针</t>
+  </si>
+  <si>
+    <t>解谜素材</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>沙漏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +298,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,12 +326,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -299,6 +337,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -616,7 +664,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -627,10 +675,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="79.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -665,72 +713,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="37.125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -748,81 +796,82 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -832,86 +881,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81918D5B-B6C6-4491-9C77-6BD0354942C2}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="60.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="59.4">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.6">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F2009-0FB1-42F0-9249-A4F5437DB32F}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -929,67 +898,239 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81918D5B-B6C6-4491-9C77-6BD0354942C2}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="60.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="91" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="59.4">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59.4">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" ht="39.6">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032908A9-D9BE-46BB-87EB-017C41B02569}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -1,45 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727265F-A449-4B1D-9E80-E609504884D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB65E9D-46B6-476C-A887-DAC6C79DB0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{0F556666-F9B4-4145-8D5A-97CE66C4248B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="背景策划" sheetId="1" r:id="rId1"/>
     <sheet name="操作策划" sheetId="2" r:id="rId2"/>
     <sheet name="系统策划" sheetId="3" r:id="rId3"/>
-    <sheet name="特殊玩法" sheetId="5" r:id="rId4"/>
-    <sheet name="场景策划" sheetId="4" r:id="rId5"/>
-    <sheet name="美工策划" sheetId="6" r:id="rId6"/>
+    <sheet name="场景策划" sheetId="4" r:id="rId4"/>
+    <sheet name="特殊玩法" sheetId="5" r:id="rId5"/>
+    <sheet name="时间梦境" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>梦境精灵</t>
   </si>
@@ -56,6 +42,12 @@
     <t>大学生，受到各种压力压迫</t>
   </si>
   <si>
+    <t>阴影</t>
+  </si>
+  <si>
+    <t>梦境的守卫，驱除外来者</t>
+  </si>
+  <si>
     <t>移动</t>
   </si>
   <si>
@@ -74,15 +66,15 @@
     <t>跳</t>
   </si>
   <si>
+    <t>Space</t>
+  </si>
+  <si>
     <t>有二段跳，墙跳</t>
   </si>
   <si>
     <t>冲刺</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
     <t>Shift</t>
   </si>
   <si>
@@ -146,10 +138,58 @@
     <t>打击感</t>
   </si>
   <si>
-    <t>阴影</t>
-  </si>
-  <si>
-    <t>梦境的守卫，驱除外来者</t>
+    <t>大学校园</t>
+  </si>
+  <si>
+    <t>考场</t>
+  </si>
+  <si>
+    <t>压抑的气氛，怪物以书本、测验卷为主，反映其考试压力，也可以以数学符号为主做解谜和战斗</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>充满时钟、沙漏等表示时间的东西，代表主角害怕在重要的事迟到，也代表人们对时间的焦虑，时钟可用作解谜，跑酷，日夜交替，限时关卡，怪物也以时钟、沙漏为主。</t>
+  </si>
+  <si>
+    <t>迷宫</t>
+  </si>
+  <si>
+    <t>书本</t>
+  </si>
+  <si>
+    <t>超能力</t>
+  </si>
+  <si>
+    <t>监狱</t>
+  </si>
+  <si>
+    <t>压抑的气氛</t>
+  </si>
+  <si>
+    <t>缤纷色彩世界</t>
+  </si>
+  <si>
+    <t>气氛轻松，色彩鲜艳缤纷，存在主人从小喜欢的事，反映对童年的怀念怪物较少，解谜较多。</t>
+  </si>
+  <si>
+    <t>循环房间</t>
+  </si>
+  <si>
+    <t>没有尽头的宿舍走廊，要解谜才能突破</t>
+  </si>
+  <si>
+    <t>向上泡泡</t>
+  </si>
+  <si>
+    <t>以睡觉的泡泡为题，玩家进入后可以随着泡泡漂流</t>
+  </si>
+  <si>
+    <t>毒药水池</t>
+  </si>
+  <si>
+    <t>传送門</t>
   </si>
   <si>
     <t>坠落</t>
@@ -161,18 +201,6 @@
     <t>移动平台</t>
   </si>
   <si>
-    <t>向上泡泡</t>
-  </si>
-  <si>
-    <t>以睡觉的泡泡为题，玩家进入后可以随着泡泡漂流</t>
-  </si>
-  <si>
-    <t>毒药水池</t>
-  </si>
-  <si>
-    <t>传送門</t>
-  </si>
-  <si>
     <t>风场</t>
   </si>
   <si>
@@ -182,103 +210,87 @@
     <t>可以觀看夢境主人的過去，来解决谜题或通过难关。</t>
   </si>
   <si>
+    <t>重力切换</t>
+  </si>
+  <si>
     <t>改变重力方向，使角色能在天花板或侧墙行走。</t>
   </si>
   <si>
-    <t>重力切换</t>
+    <t>颜色动态</t>
   </si>
   <si>
     <t>玩家需改变角色或环境的颜色来解锁新路径或能力。</t>
   </si>
   <si>
-    <t>颜色动态</t>
-  </si>
-  <si>
-    <t>缤纷色彩世界</t>
-  </si>
-  <si>
-    <t>循环房间</t>
-  </si>
-  <si>
-    <t>没有尽头的宿舍走廊，要解谜才能突破</t>
-  </si>
-  <si>
-    <t>时钟</t>
-  </si>
-  <si>
-    <t>充满时钟、沙漏等表示时间的东西，代表主角害怕在重要的事迟到，也代表人们对时间的焦虑，时钟可用作解谜，跑酷，日夜交替，限时关卡，怪物也以时钟、沙漏为主。</t>
-  </si>
-  <si>
-    <t>压抑的气氛，怪物以书本、测验卷为主，反映其考试压力，也可以以数学符号为主做解谜和战斗</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>微信群通知，朋友圈po gpa，制造恐慌</t>
-  </si>
-  <si>
-    <t>考场、监狱</t>
-  </si>
-  <si>
-    <t>精灵</t>
-  </si>
-  <si>
-    <t>精灵移动动作</t>
-  </si>
-  <si>
-    <t>精灵攻击动作</t>
-  </si>
-  <si>
-    <t>气氛轻松，色彩鲜艳缤纷，存在主人从小喜欢的事，反映对童年的怀念怪物较少，解谜较多。（因为后面的梦境都比较压抑，这个可以拿来做新手关和营造反差感）</t>
-  </si>
-  <si>
-    <t>精灵跳跃动作</t>
-  </si>
-  <si>
-    <t>场景背景</t>
+    <t>解谜机制1</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>用具</t>
+  </si>
+  <si>
+    <t>沙漏</t>
+  </si>
+  <si>
+    <t>时钟指针</t>
+  </si>
+  <si>
+    <t>1.对沙漏互动</t>
+  </si>
+  <si>
+    <t>2.指针旋转（指针为可站立平台）</t>
+  </si>
+  <si>
+    <t>解谜机制2</t>
+  </si>
+  <si>
+    <t>1.与灯互动</t>
+  </si>
+  <si>
+    <t>日-夜场景</t>
+  </si>
+  <si>
+    <t>2.切换同一场景的日场景与夜场景</t>
+  </si>
+  <si>
+    <t>怪物</t>
   </si>
   <si>
     <t>怪物1</t>
   </si>
   <si>
+    <t>时钟炸弹</t>
+  </si>
+  <si>
     <t>怪物2</t>
   </si>
   <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>时针</t>
-  </si>
-  <si>
-    <t>分针</t>
-  </si>
-  <si>
-    <t>秒针</t>
-  </si>
-  <si>
-    <t>解谜素材</t>
-  </si>
-  <si>
-    <t>敌人</t>
-  </si>
-  <si>
-    <t>门</t>
-  </si>
-  <si>
-    <t>沙漏</t>
+    <t>融合了时钟和炸弹，被打败数秒后自爆</t>
+  </si>
+  <si>
+    <t>重力颠倒</t>
+  </si>
+  <si>
+    <t>小夜灯</t>
+  </si>
+  <si>
+    <t>影子怪物</t>
+  </si>
+  <si>
+    <t>会减慢玩家的移速（日场景和夜场景属性会不同）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -286,20 +298,11 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -326,9 +329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -337,15 +343,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -440,26 +451,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -492,23 +486,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,23 +628,18 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7650EEA-AB79-44DD-AAD0-581022A5219D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="119.125" style="1" customWidth="1"/>
@@ -675,10 +647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="79.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -692,10 +664,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -704,82 +676,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4030A919-DA6B-4BCE-9C67-42CFAC016A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="37.125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
+    <row r="1" spans="1:3" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -787,92 +759,91 @@
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F7CC00-A2F5-4D10-AF1D-6ADD57A354FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
+      <c r="A1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
+      <c r="A4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
+      <c r="A5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
+      <c r="A10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
+      <c r="A12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
+      <c r="A13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
+      <c r="A14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -881,14 +852,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F2009-0FB1-42F0-9249-A4F5437DB32F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="60.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="59.4">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="39.6">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.75" style="1" customWidth="1"/>
@@ -898,64 +949,64 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -963,174 +1014,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81918D5B-B6C6-4491-9C77-6BD0354942C2}">
-  <dimension ref="A1:C5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="60.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="91" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="16.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="59.4">
-      <c r="A1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="59.4">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="8"/>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="39.6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.05" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C4"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032908A9-D9BE-46BB-87EB-017C41B02569}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -5,48 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB65E9D-46B6-476C-A887-DAC6C79DB0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5725CF1-C13F-4DEE-B771-65C641FBEDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="背景策划" sheetId="1" r:id="rId1"/>
-    <sheet name="操作策划" sheetId="2" r:id="rId2"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId3"/>
-    <sheet name="场景策划" sheetId="4" r:id="rId4"/>
-    <sheet name="特殊玩法" sheetId="5" r:id="rId5"/>
-    <sheet name="时间梦境" sheetId="6" r:id="rId6"/>
+    <sheet name="日程表" sheetId="7" r:id="rId1"/>
+    <sheet name="背景策划" sheetId="1" r:id="rId2"/>
+    <sheet name="操作策划" sheetId="2" r:id="rId3"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId4"/>
+    <sheet name="时间梦境" sheetId="6" r:id="rId5"/>
+    <sheet name="特殊玩法" sheetId="5" r:id="rId6"/>
+    <sheet name="场景策划" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
-  <si>
-    <t>梦境精灵</t>
-  </si>
-  <si>
-    <t>梦境精灵會进入心灵有不安的人的梦境
-透过探索梦境
-深入到他的内心深处
-把他从不安中拯救</t>
-  </si>
-  <si>
-    <t>梦境主人</t>
-  </si>
-  <si>
-    <t>大学生，受到各种压力压迫</t>
-  </si>
-  <si>
-    <t>阴影</t>
-  </si>
-  <si>
-    <t>梦境的守卫，驱除外来者</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>移动</t>
   </si>
@@ -120,9 +100,6 @@
     <t>敌人AI</t>
   </si>
   <si>
-    <t>对话</t>
-  </si>
-  <si>
     <t>光影</t>
   </si>
   <si>
@@ -280,6 +257,135 @@
   </si>
   <si>
     <t>会减慢玩家的移速（日场景和夜场景属性会不同）</t>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>太陽月亮</t>
+  </si>
+  <si>
+    <t>改變大陽月亮的位置來改變影子角度</t>
+  </si>
+  <si>
+    <t>限時戰鬥</t>
+  </si>
+  <si>
+    <t>電子倒計時</t>
+  </si>
+  <si>
+    <t>交互</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2月14日 </t>
+  </si>
+  <si>
+    <t>策劃：主要玩法確定 部分關卡設計確定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2月21日 </t>
+  </si>
+  <si>
+    <t>策劃：關卡設計</t>
+  </si>
+  <si>
+    <t>美術：角色動畫，UI設計，優化素材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2月29日 </t>
+  </si>
+  <si>
+    <t>實現遊戲主要玩法</t>
+  </si>
+  <si>
+    <t>至少製作出遊戲的部分關卡</t>
+  </si>
+  <si>
+    <t>美術：畫風確定 人設確定 遊戲主要素材完成（背景、交互對象、敵人等）（可以草圖後面再優化）</t>
+  </si>
+  <si>
+    <t>程式：主要系統實現（移動、場景交互、日夜系統等）</t>
+  </si>
+  <si>
+    <t>程式：搭建關卡，系統優化完善（修bug）</t>
+  </si>
+  <si>
+    <t>初審在3月初</t>
+  </si>
+  <si>
+    <t>分工</t>
+  </si>
+  <si>
+    <t>劉健泓 劉仲衡 辛啓軒</t>
+  </si>
+  <si>
+    <t>策劃</t>
+  </si>
+  <si>
+    <t>辛啓軒</t>
+  </si>
+  <si>
+    <t>劉仲衡 劉健泓</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>美工</t>
+  </si>
+  <si>
+    <t>項目管理</t>
+  </si>
+  <si>
+    <t>劉健泓</t>
+  </si>
+  <si>
+    <t>遊戲目標</t>
+  </si>
+  <si>
+    <t>追上一個白影（夢境主人）</t>
+  </si>
+  <si>
+    <t>每個關卡都會看到白影走向某個門（提示玩家目的地）</t>
+  </si>
+  <si>
+    <t>預計遊玩時長</t>
+  </si>
+  <si>
+    <t>20-40分鐘</t>
+  </si>
+  <si>
+    <t>夢境精靈</t>
+  </si>
+  <si>
+    <t>夢境精靈會進入心靈有不安的人的夢境
+透過探索夢境
+深入到他的內心深處
+把他從不安中拯救</t>
+  </si>
+  <si>
+    <t>夢境主人</t>
+  </si>
+  <si>
+    <t>大學生，受到各種壓力壓迫</t>
+  </si>
+  <si>
+    <t>陰影</t>
+  </si>
+  <si>
+    <t>夢境的守衛，驅除外來者</t>
+  </si>
+  <si>
+    <t>關卡數</t>
+  </si>
+  <si>
+    <t>日夜场景切换</t>
   </si>
 </sst>
 </file>
@@ -329,18 +435,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,13 +449,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,55 +741,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D58D62-17DE-4EC4-A823-59D5D3058488}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="119.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="129.125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="79.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="23.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="119.125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="79.2">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
@@ -690,68 +957,76 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
+    <row r="1" spans="1:3" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -763,167 +1038,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="60.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="59.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -932,6 +1128,146 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.05" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -949,64 +1285,64 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1014,118 +1350,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="10"/>
+    <col min="1" max="1" width="60.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="59.4">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="39.6">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>83</v>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5725CF1-C13F-4DEE-B771-65C641FBEDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B2280-8346-4EF3-B6FC-E6DFC742629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
     <sheet name="背景策划" sheetId="1" r:id="rId2"/>
-    <sheet name="操作策划" sheetId="2" r:id="rId3"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId4"/>
-    <sheet name="时间梦境" sheetId="6" r:id="rId5"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId3"/>
+    <sheet name="操作策划" sheetId="2" r:id="rId4"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId5"/>
     <sheet name="特殊玩法" sheetId="5" r:id="rId6"/>
-    <sheet name="场景策划" sheetId="4" r:id="rId7"/>
+    <sheet name="时间梦境" sheetId="6" r:id="rId7"/>
+    <sheet name="场景策划" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>移动</t>
   </si>
@@ -386,13 +387,52 @@
   </si>
   <si>
     <t>日夜场景切换</t>
+  </si>
+  <si>
+    <t>THE WORLD</t>
+  </si>
+  <si>
+    <t>夜猫</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>教学关，以日夜和沙漏为主，也要打怪物</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>潜入影子</t>
+  </si>
+  <si>
+    <t>掉落陷阱</t>
+  </si>
+  <si>
+    <t>黑洞白洞</t>
+  </si>
+  <si>
+    <t>幽靈</t>
+  </si>
+  <si>
+    <t>巫师</t>
+  </si>
+  <si>
+    <t>怪物4</t>
+  </si>
+  <si>
+    <t>怪物5</t>
+  </si>
+  <si>
+    <t>时间梦境</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +450,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="新細明體"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -435,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -446,26 +492,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +799,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -764,19 +807,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -784,19 +827,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -804,13 +847,13 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>92</v>
       </c>
@@ -881,7 +924,7 @@
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -889,7 +932,7 @@
       <c r="A2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -897,24 +940,24 @@
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="11"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -922,7 +965,7 @@
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -930,7 +973,7 @@
       <c r="A8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
     </row>
@@ -943,6 +986,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -957,8 +1035,8 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1038,11 +1116,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1124,146 +1202,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.05" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1351,6 +1289,191 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.05" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B2280-8346-4EF3-B6FC-E6DFC742629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBD884-7D63-4EB7-9643-987E5B1026BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
     <sheet name="背景策划" sheetId="1" r:id="rId2"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId3"/>
-    <sheet name="操作策划" sheetId="2" r:id="rId4"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId5"/>
-    <sheet name="特殊玩法" sheetId="5" r:id="rId6"/>
-    <sheet name="时间梦境" sheetId="6" r:id="rId7"/>
-    <sheet name="场景策划" sheetId="4" r:id="rId8"/>
+    <sheet name="操作策划" sheetId="2" r:id="rId3"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId4"/>
+    <sheet name="游戏机制" sheetId="9" r:id="rId5"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId6"/>
+    <sheet name="特殊玩法" sheetId="5" r:id="rId7"/>
+    <sheet name="时间梦境" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>移动</t>
   </si>
@@ -116,46 +116,7 @@
     <t>打击感</t>
   </si>
   <si>
-    <t>大学校园</t>
-  </si>
-  <si>
-    <t>考场</t>
-  </si>
-  <si>
-    <t>压抑的气氛，怪物以书本、测验卷为主，反映其考试压力，也可以以数学符号为主做解谜和战斗</t>
-  </si>
-  <si>
-    <t>时钟</t>
-  </si>
-  <si>
     <t>充满时钟、沙漏等表示时间的东西，代表主角害怕在重要的事迟到，也代表人们对时间的焦虑，时钟可用作解谜，跑酷，日夜交替，限时关卡，怪物也以时钟、沙漏为主。</t>
-  </si>
-  <si>
-    <t>迷宫</t>
-  </si>
-  <si>
-    <t>书本</t>
-  </si>
-  <si>
-    <t>超能力</t>
-  </si>
-  <si>
-    <t>监狱</t>
-  </si>
-  <si>
-    <t>压抑的气氛</t>
-  </si>
-  <si>
-    <t>缤纷色彩世界</t>
-  </si>
-  <si>
-    <t>气氛轻松，色彩鲜艳缤纷，存在主人从小喜欢的事，反映对童年的怀念怪物较少，解谜较多。</t>
-  </si>
-  <si>
-    <t>循环房间</t>
-  </si>
-  <si>
-    <t>没有尽头的宿舍走廊，要解谜才能突破</t>
   </si>
   <si>
     <t>向上泡泡</t>
@@ -398,9 +359,6 @@
     <t>Level 1</t>
   </si>
   <si>
-    <t>教学关，以日夜和沙漏为主，也要打怪物</t>
-  </si>
-  <si>
     <t>Level 2</t>
   </si>
   <si>
@@ -426,6 +384,96 @@
   </si>
   <si>
     <t>时间梦境</t>
+  </si>
+  <si>
+    <t>核心玩法</t>
+  </si>
+  <si>
+    <t>一句話說明</t>
+  </si>
+  <si>
+    <t>以日夜場景切換來解迷和戰鬥2d橫版遊戲</t>
+  </si>
+  <si>
+    <t>其他玩法</t>
+  </si>
+  <si>
+    <t>以沙漏按鈕觸發,改變時鐘指針的相應位置,指針可以作為站立平台</t>
+  </si>
+  <si>
+    <t>傳送門</t>
+  </si>
+  <si>
+    <t>日場景</t>
+  </si>
+  <si>
+    <t>夜場景</t>
+  </si>
+  <si>
+    <t>夜場景能力：玩家在燈附近可跳躍到另一燈附近</t>
+  </si>
+  <si>
+    <t>場景要素：燈，月亮，</t>
+  </si>
+  <si>
+    <t>場景切換</t>
+  </si>
+  <si>
+    <t>場景要素：太陽，雲朵(平台)，影子(障礙物)，彩虹，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">太陽-&gt;月亮  </t>
+  </si>
+  <si>
+    <t>開燈-&gt;關燈</t>
+  </si>
+  <si>
+    <t>水-&gt;冰</t>
+  </si>
+  <si>
+    <t>雲朵(平台)-&gt;雲朵(背景)</t>
+  </si>
+  <si>
+    <t>影子(深色，障礙物)-&gt;影子(淺色，非障礙物)</t>
+  </si>
+  <si>
+    <t>場景切換也有一層時間變換的意義，所以日夜場景也可以完全不同</t>
+  </si>
+  <si>
+    <t>日場景能力：炮彈</t>
+  </si>
+  <si>
+    <t>玩家可以改變場景日與夜，日夜場景在解迷上和戰鬥上會有不同，玩家需要使用這個能力到逹目的地，每個關卡切換次數有限。</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>關卡</t>
+  </si>
+  <si>
+    <t>主要元素</t>
+  </si>
+  <si>
+    <t>沙漏時鐘機關，日夜切換，基本戰鬥</t>
+  </si>
+  <si>
+    <t>日夜切換活用，機制組合</t>
+  </si>
+  <si>
+    <t>大BOSS，機制大融合</t>
+  </si>
+  <si>
+    <t>重力顛倒，日夜切換，沙漏時鐘機關，傳送門</t>
+  </si>
+  <si>
+    <t>鬧鐘場景，賽跑場景，朋友圈場景</t>
   </si>
 </sst>
 </file>
@@ -481,12 +529,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,12 +548,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,106 +853,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="129.125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="30.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="129.125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
-        <v>93</v>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
-        <v>94</v>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
-        <v>95</v>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
-        <v>91</v>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -907,90 +967,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="119.125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="23.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="137" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="79.2">
-      <c r="A1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>113</v>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="79.2">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1003,15 +1169,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1020,103 +1221,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="74.5" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="37.125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="74.5" style="2"/>
+    <col min="2" max="2" width="118.375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="74.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>83</v>
+    <row r="1" spans="1:2" ht="42" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="63" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.4" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
@@ -1197,7 +1449,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1205,12 +1457,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1223,64 +1475,64 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1288,178 +1540,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="5"/>
+    <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>131</v>
+      <c r="A1" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.05" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>81</v>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>119</v>
+      <c r="A10" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>124</v>
+      <c r="A11" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>125</v>
+      <c r="A12" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>48</v>
+      <c r="A13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>126</v>
+      <c r="A14" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>68</v>
+      <c r="A16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>72</v>
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>120</v>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>127</v>
+      <c r="A20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>128</v>
+      <c r="A21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1471,84 +1723,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="60.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="59.4">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.6">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBD884-7D63-4EB7-9643-987E5B1026BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3555A4-1B51-40DA-8EBE-CFBD50CE1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3555A4-1B51-40DA-8EBE-CFBD50CE1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFE8F5-B770-45A3-AFC9-E8761E88DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
-    <sheet name="背景策划" sheetId="1" r:id="rId2"/>
-    <sheet name="操作策划" sheetId="2" r:id="rId3"/>
+    <sheet name="操作策划" sheetId="2" r:id="rId2"/>
+    <sheet name="背景策划" sheetId="1" r:id="rId3"/>
     <sheet name="关卡设计" sheetId="8" r:id="rId4"/>
     <sheet name="游戏机制" sheetId="9" r:id="rId5"/>
     <sheet name="系统策划" sheetId="3" r:id="rId6"/>
@@ -966,6 +966,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1055,108 +1151,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
-  <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.5" defaultRowHeight="22.2"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFE8F5-B770-45A3-AFC9-E8761E88DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66916749-E534-4A5A-833D-D89EE491FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="背景策划" sheetId="1" r:id="rId3"/>
     <sheet name="关卡设计" sheetId="8" r:id="rId4"/>
     <sheet name="游戏机制" sheetId="9" r:id="rId5"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId6"/>
-    <sheet name="特殊玩法" sheetId="5" r:id="rId7"/>
+    <sheet name="美术需求" sheetId="10" r:id="rId6"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId7"/>
     <sheet name="时间梦境" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
   <si>
     <t>移动</t>
   </si>
@@ -65,9 +65,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>远程</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>角色生命</t>
   </si>
   <si>
-    <t>角色技能</t>
-  </si>
-  <si>
     <t>场景交互</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>储存</t>
   </si>
   <si>
-    <t>镜头移动</t>
-  </si>
-  <si>
     <t>镜头抖动</t>
   </si>
   <si>
@@ -119,46 +110,7 @@
     <t>充满时钟、沙漏等表示时间的东西，代表主角害怕在重要的事迟到，也代表人们对时间的焦虑，时钟可用作解谜，跑酷，日夜交替，限时关卡，怪物也以时钟、沙漏为主。</t>
   </si>
   <si>
-    <t>向上泡泡</t>
-  </si>
-  <si>
-    <t>以睡觉的泡泡为题，玩家进入后可以随着泡泡漂流</t>
-  </si>
-  <si>
-    <t>毒药水池</t>
-  </si>
-  <si>
-    <t>传送門</t>
-  </si>
-  <si>
-    <t>坠落</t>
-  </si>
-  <si>
     <t>追逐</t>
-  </si>
-  <si>
-    <t>移动平台</t>
-  </si>
-  <si>
-    <t>风场</t>
-  </si>
-  <si>
-    <t>时间控制</t>
-  </si>
-  <si>
-    <t>可以觀看夢境主人的過去，来解决谜题或通过难关。</t>
-  </si>
-  <si>
-    <t>重力切换</t>
-  </si>
-  <si>
-    <t>改变重力方向，使角色能在天花板或侧墙行走。</t>
-  </si>
-  <si>
-    <t>颜色动态</t>
-  </si>
-  <si>
-    <t>玩家需改变角色或环境的颜色来解锁新路径或能力。</t>
   </si>
   <si>
     <t>解谜机制1</t>
@@ -419,9 +371,6 @@
     <t>場景切換</t>
   </si>
   <si>
-    <t>場景要素：太陽，雲朵(平台)，影子(障礙物)，彩虹，</t>
-  </si>
-  <si>
     <t xml:space="preserve">太陽-&gt;月亮  </t>
   </si>
   <si>
@@ -440,9 +389,6 @@
     <t>場景切換也有一層時間變換的意義，所以日夜場景也可以完全不同</t>
   </si>
   <si>
-    <t>日場景能力：炮彈</t>
-  </si>
-  <si>
     <t>玩家可以改變場景日與夜，日夜場景在解迷上和戰鬥上會有不同，玩家需要使用這個能力到逹目的地，每個關卡切換次數有限。</t>
   </si>
   <si>
@@ -474,13 +420,106 @@
   </si>
   <si>
     <t>鬧鐘場景，賽跑場景，朋友圈場景</t>
+  </si>
+  <si>
+    <t>日場景能力：火球，可燃烧障碍或战斗</t>
+  </si>
+  <si>
+    <t>教学关</t>
+  </si>
+  <si>
+    <t>展示特色玩法</t>
+  </si>
+  <si>
+    <t>挑战关，小高潮</t>
+  </si>
+  <si>
+    <t>大高潮，结局</t>
+  </si>
+  <si>
+    <t>过渡结局，需要比较重点场景设计</t>
+  </si>
+  <si>
+    <t>火球</t>
+  </si>
+  <si>
+    <t>場景要素：太陽，雲朵(平台)，影子(障礙物)，彩虹</t>
+  </si>
+  <si>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>主角设计</t>
+  </si>
+  <si>
+    <t>飞跃</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>日场景</t>
+  </si>
+  <si>
+    <t>夜场景</t>
+  </si>
+  <si>
+    <t>发射火球</t>
+  </si>
+  <si>
+    <t>站立平台</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>时钟背景</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>月亮</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>雲朵</t>
+  </si>
+  <si>
+    <t>白影（夢境主人）</t>
+  </si>
+  <si>
+    <t>火球与被燃烧物体</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>时钟指针转动</t>
+  </si>
+  <si>
+    <t>镜头跟随</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +547,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -529,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,30 +592,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,111 +886,111 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
   <cols>
     <col min="1" max="1" width="30.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="129.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="157.875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -970,18 +1008,19 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1030,26 +1069,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1105,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1079,65 +1118,65 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="79.2">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
-        <v>93</v>
+      <c r="A6" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -1153,9 +1192,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1163,56 +1202,71 @@
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="74.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.25" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1225,135 +1279,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="74.5" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="74.5" style="2"/>
-    <col min="2" max="2" width="118.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="74.5" style="2"/>
+    <col min="1" max="1" width="28.375" style="1"/>
+    <col min="2" max="2" width="100" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="28.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="42" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="63" customHeight="1">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="51" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.4" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1369,170 +1423,285 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22.2">
+      <c r="A1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.2">
+      <c r="A8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.2" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22.2">
+      <c r="A12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.2">
+      <c r="A23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="22.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1544,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
@@ -1558,160 +1727,160 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.05" customHeight="1">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66916749-E534-4A5A-833D-D89EE491FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E552B8D1-C2C9-47D1-8027-27050E59E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
-    <sheet name="操作策划" sheetId="2" r:id="rId2"/>
-    <sheet name="背景策划" sheetId="1" r:id="rId3"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId4"/>
-    <sheet name="游戏机制" sheetId="9" r:id="rId5"/>
-    <sheet name="美术需求" sheetId="10" r:id="rId6"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId7"/>
-    <sheet name="时间梦境" sheetId="6" r:id="rId8"/>
+    <sheet name="背景策划" sheetId="1" r:id="rId2"/>
+    <sheet name="遊戲機制" sheetId="9" r:id="rId3"/>
+    <sheet name="美术需求" sheetId="10" r:id="rId4"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId5"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId6"/>
+    <sheet name="时间梦境" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
   <si>
     <t>移动</t>
   </si>
@@ -350,9 +349,6 @@
     <t>其他玩法</t>
   </si>
   <si>
-    <t>以沙漏按鈕觸發,改變時鐘指針的相應位置,指針可以作為站立平台</t>
-  </si>
-  <si>
     <t>傳送門</t>
   </si>
   <si>
@@ -371,18 +367,12 @@
     <t>場景切換</t>
   </si>
   <si>
-    <t xml:space="preserve">太陽-&gt;月亮  </t>
-  </si>
-  <si>
     <t>開燈-&gt;關燈</t>
   </si>
   <si>
     <t>水-&gt;冰</t>
   </si>
   <si>
-    <t>雲朵(平台)-&gt;雲朵(背景)</t>
-  </si>
-  <si>
     <t>影子(深色，障礙物)-&gt;影子(淺色，非障礙物)</t>
   </si>
   <si>
@@ -422,9 +412,6 @@
     <t>鬧鐘場景，賽跑場景，朋友圈場景</t>
   </si>
   <si>
-    <t>日場景能力：火球，可燃烧障碍或战斗</t>
-  </si>
-  <si>
     <t>教学关</t>
   </si>
   <si>
@@ -443,9 +430,6 @@
     <t>火球</t>
   </si>
   <si>
-    <t>場景要素：太陽，雲朵(平台)，影子(障礙物)，彩虹</t>
-  </si>
-  <si>
     <t>主角</t>
   </si>
   <si>
@@ -513,13 +497,55 @@
   </si>
   <si>
     <t>镜头跟随</t>
+  </si>
+  <si>
+    <t>地圖</t>
+  </si>
+  <si>
+    <t>大地圖</t>
+  </si>
+  <si>
+    <t>影子形態(小遊戲、解迷)</t>
+  </si>
+  <si>
+    <t>怪物1：自爆步兵，被打敗數秒後自爆</t>
+  </si>
+  <si>
+    <t>重力，混沌，</t>
+  </si>
+  <si>
+    <t>BOSS：</t>
+  </si>
+  <si>
+    <t>以沙漏按鈕觸發,改變時鐘指針的相應位置,指針可以作為站立平臺</t>
+  </si>
+  <si>
+    <t>重力顛倒</t>
+  </si>
+  <si>
+    <t>日場景能力：火球，可燃燒障礙或戰鬥</t>
+  </si>
+  <si>
+    <t>場景要素：太陽，雲朵(平臺)，影子(障礙物)，彩虹</t>
+  </si>
+  <si>
+    <t>太陽-&gt;月亮</t>
+  </si>
+  <si>
+    <t>雲朵(平臺)-&gt;雲朵(背景)</t>
+  </si>
+  <si>
+    <t>怪物2：遠程射手，掛在牆被射中畫面半黑/混沌/減速</t>
+  </si>
+  <si>
+    <t>重物下落陷阱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,7 +575,14 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -598,7 +631,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,6 +640,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -885,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D58D62-17DE-4EC4-A823-59D5D3058488}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
@@ -1004,113 +1037,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33" style="3" customWidth="1"/>
     <col min="2" max="2" width="137" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
@@ -1153,7 +1089,7 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1161,7 +1097,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
@@ -1180,6 +1116,14 @@
       </c>
       <c r="B9" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1190,12 +1134,540 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="28.375" style="1"/>
+    <col min="2" max="2" width="100" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="28.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30.6"/>
+  <cols>
+    <col min="1" max="1" width="38.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="40.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="37.75" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.2" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="1" width="49.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="43.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1208,10 +1680,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1219,10 +1691,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1230,43 +1702,43 @@
         <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1275,446 +1747,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
-  <dimension ref="A1:B18"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="28.375" style="1"/>
-    <col min="2" max="2" width="100" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="28.375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6">
-      <c r="A2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="22.2">
-      <c r="A1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="22.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.2">
-      <c r="A8" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.2" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22.2">
-      <c r="A12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="22.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="22.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="22.2">
-      <c r="A23" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="22.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:A7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
@@ -1729,10 +1767,10 @@
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -1744,7 +1782,7 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1755,7 +1793,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1802,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1775,7 +1813,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.05" customHeight="1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1881,6 +1919,11 @@
       </c>
       <c r="B21" s="4" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E552B8D1-C2C9-47D1-8027-27050E59E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD80EA-83D8-45F7-A2A9-D70C55DA9F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,19 +628,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -919,7 +919,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
@@ -930,7 +930,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -938,19 +938,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -958,19 +958,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -978,13 +978,13 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1174,49 +1174,49 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1224,13 +1224,13 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1238,13 +1238,13 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1252,37 +1252,37 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1290,13 +1290,13 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>161</v>
       </c>
@@ -1324,53 +1324,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.6"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="40.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="38.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="37.75" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1378,13 +1378,13 @@
       <c r="A8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1392,13 +1392,13 @@
       <c r="A10" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1406,67 +1406,67 @@
       <c r="A12" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1474,19 +1474,19 @@
       <c r="A23" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1767,10 +1767,10 @@
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -1782,7 +1782,7 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1802,7 +1802,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1813,7 +1813,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.05" customHeight="1">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD80EA-83D8-45F7-A2A9-D70C55DA9F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E705AED-4307-45D8-89E3-206B377D8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="时间梦境" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
   <si>
     <t>移动</t>
   </si>
@@ -298,9 +299,6 @@
     <t>關卡數</t>
   </si>
   <si>
-    <t>日夜场景切换</t>
-  </si>
-  <si>
     <t>THE WORLD</t>
   </si>
   <si>
@@ -539,6 +537,27 @@
   </si>
   <si>
     <t>重物下落陷阱</t>
+  </si>
+  <si>
+    <t>角色相关</t>
+  </si>
+  <si>
+    <t>战斗相关</t>
+  </si>
+  <si>
+    <t>交互物体相关</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>运镜</t>
+  </si>
+  <si>
+    <t>战斗数值</t>
   </si>
 </sst>
 </file>
@@ -918,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D58D62-17DE-4EC4-A823-59D5D3058488}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
@@ -1054,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
@@ -1120,10 +1139,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1151,38 +1170,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1194,7 +1213,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1206,79 +1225,79 @@
     <row r="9" spans="1:2">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1286,19 +1305,19 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1332,10 +1351,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1359,52 +1378,52 @@
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="25.2" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>31</v>
@@ -1419,60 +1438,60 @@
     <row r="14" spans="1:2">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>40</v>
@@ -1487,7 +1506,7 @@
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1505,159 +1524,206 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="43.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="10"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.2" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.2" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="20" spans="1:2" ht="22.2" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.2" customHeight="1"/>
+    <row r="22" spans="1:2" ht="22.2" customHeight="1"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A13:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1680,65 +1746,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1831,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>26</v>
@@ -1847,17 +1913,17 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1867,7 +1933,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1902,28 +1968,28 @@
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E705AED-4307-45D8-89E3-206B377D8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3CB80-E121-418D-9B50-C8390AE89C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
   <si>
     <t>移动</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>有二段跳，墙跳</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>Shift</t>
   </si>
   <si>
     <t>攻击</t>
@@ -950,99 +944,99 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1073,35 +1067,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="79.2">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1109,29 +1103,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -1139,10 +1133,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1157,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -1170,154 +1164,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1345,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1372,141 +1366,141 @@
     <row r="4" spans="1:2">
       <c r="A4" s="11"/>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="25.2" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11"/>
       <c r="B24" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1524,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1541,10 +1535,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1556,7 +1550,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1568,7 +1562,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1582,6 +1576,9 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1592,30 +1589,30 @@
     <row r="5" spans="1:6">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1624,13 +1621,13 @@
     <row r="8" spans="1:6">
       <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1638,91 +1635,79 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" ht="22.2" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.2" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>170</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.2" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="22.2" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.2" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22.2" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.2" customHeight="1"/>
     <row r="21" spans="1:2" ht="22.2" customHeight="1"/>
-    <row r="22" spans="1:2" ht="22.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1733,7 +1718,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1746,65 +1731,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1831,165 +1816,165 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.05" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3CB80-E121-418D-9B50-C8390AE89C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF6752F-6EFE-4E4E-A41E-51B72BDBAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -22,12 +22,11 @@
     <sheet name="时间梦境" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
   <si>
     <t>移动</t>
   </si>
@@ -552,6 +551,9 @@
   </si>
   <si>
     <t>战斗数值</t>
+  </si>
+  <si>
+    <t>綿羊</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1800,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
@@ -1977,6 +1979,11 @@
         <v>157</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF6752F-6EFE-4E4E-A41E-51B72BDBAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3007EEDF-EC7F-4BCC-BDAF-36CF3570C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3007EEDF-EC7F-4BCC-BDAF-36CF3570C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0343269-1AF3-43C2-9701-E1F295A1BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,15 @@
     <sheet name="美术需求" sheetId="10" r:id="rId4"/>
     <sheet name="系统策划" sheetId="3" r:id="rId5"/>
     <sheet name="关卡设计" sheetId="8" r:id="rId6"/>
-    <sheet name="时间梦境" sheetId="6" r:id="rId7"/>
+    <sheet name="UI" sheetId="11" r:id="rId7"/>
+    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="194">
   <si>
     <t>移动</t>
   </si>
@@ -254,9 +255,6 @@
   </si>
   <si>
     <t>遊戲目標</t>
-  </si>
-  <si>
-    <t>追上一個白影（夢境主人）</t>
   </si>
   <si>
     <t>每個關卡都會看到白影走向某個門（提示玩家目的地）</t>
@@ -334,9 +332,6 @@
     <t>一句話說明</t>
   </si>
   <si>
-    <t>以日夜場景切換來解迷和戰鬥2d橫版遊戲</t>
-  </si>
-  <si>
     <t>其他玩法</t>
   </si>
   <si>
@@ -554,6 +549,71 @@
   </si>
   <si>
     <t>綿羊</t>
+  </si>
+  <si>
+    <t>梦境</t>
+  </si>
+  <si>
+    <t>散架平台</t>
+  </si>
+  <si>
+    <t>向上泡泡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表層夢境
+深層夢境
+</t>
+  </si>
+  <si>
+    <t>電梯</t>
+  </si>
+  <si>
+    <t>記憶宫殿</t>
+  </si>
+  <si>
+    <t>AKA小場景關卡，與大場景道具(小夜燈)觸發後進入。</t>
+  </si>
+  <si>
+    <t>開始界面</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>暫停界面</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>以夢境的各種機關來解迷和戰鬥2d橫版遊戲</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>對話系統</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>追上一個白影（夢境主人）\ 收集蝴蝶</t>
+  </si>
+  <si>
+    <t>接近縮放</t>
+  </si>
+  <si>
+    <t>移動平台</t>
   </si>
 </sst>
 </file>
@@ -934,7 +994,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
@@ -1056,51 +1116,51 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="33" style="3" customWidth="1"/>
-    <col min="2" max="2" width="137" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="116.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="79.2">
       <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="33.6" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" ht="28.2" customHeight="1">
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
@@ -1108,26 +1168,26 @@
         <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -1135,10 +1195,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1151,53 +1211,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="1"/>
+    <col min="1" max="1" width="31.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="100" style="1" customWidth="1"/>
     <col min="3" max="16384" width="28.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1209,7 +1269,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1221,108 +1281,134 @@
     <row r="9" spans="1:2">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>161</v>
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10"/>
-      <c r="B12" s="1" t="s">
-        <v>162</v>
+      <c r="B12" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>106</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1331,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.6"/>
@@ -1345,149 +1431,161 @@
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="11"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.2" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.2" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>38</v>
@@ -1502,7 +1600,7 @@
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1537,10 +1635,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1554,6 +1655,9 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1566,6 +1670,9 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1591,18 +1698,24 @@
     <row r="5" spans="1:6">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1611,7 +1724,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1625,6 +1741,9 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1632,84 +1751,138 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="22.2" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.2" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.2" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>168</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.2" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>177</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.2" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
+        <v>193</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.2" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>171</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.2" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22.2" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22.2" customHeight="1"/>
-    <row r="21" spans="1:2" ht="22.2" customHeight="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.2" customHeight="1">
+      <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1720,7 +1893,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1733,65 +1906,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1974,80 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1818,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>24</v>
@@ -1900,17 +2143,17 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1920,7 +2163,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1955,33 +2198,33 @@
         <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0343269-1AF3-43C2-9701-E1F295A1BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB07FFF4-ED13-47E2-92E0-866DE7BB7955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB07FFF4-ED13-47E2-92E0-866DE7BB7955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716166A-849A-4E20-A95F-0FC794403D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <sheet name="UI" sheetId="11" r:id="rId7"/>
     <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="197">
   <si>
     <t>移动</t>
   </si>
@@ -614,6 +625,15 @@
   </si>
   <si>
     <t>移動平台</t>
+  </si>
+  <si>
+    <t>彈床</t>
+  </si>
+  <si>
+    <t>氣球</t>
+  </si>
+  <si>
+    <t>尖刺荊棘</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -1309,106 +1329,124 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>159</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1419,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1620,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1867,6 +1905,9 @@
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>189</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="22.2" customHeight="1">
@@ -1893,7 +1934,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1977,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716166A-849A-4E20-A95F-0FC794403D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00243224-FE6C-4E9F-96E4-DBA9E04E16D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
     <sheet name="背景策划" sheetId="1" r:id="rId2"/>
     <sheet name="遊戲機制" sheetId="9" r:id="rId3"/>
-    <sheet name="美术需求" sheetId="10" r:id="rId4"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId5"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId6"/>
-    <sheet name="UI" sheetId="11" r:id="rId7"/>
-    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="小关卡" sheetId="12" r:id="rId4"/>
+    <sheet name="美术需求" sheetId="10" r:id="rId5"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId6"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId7"/>
+    <sheet name="UI" sheetId="11" r:id="rId8"/>
+    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
   <si>
     <t>移动</t>
   </si>
@@ -265,42 +266,6 @@
     <t>劉健泓</t>
   </si>
   <si>
-    <t>遊戲目標</t>
-  </si>
-  <si>
-    <t>每個關卡都會看到白影走向某個門（提示玩家目的地）</t>
-  </si>
-  <si>
-    <t>預計遊玩時長</t>
-  </si>
-  <si>
-    <t>20-40分鐘</t>
-  </si>
-  <si>
-    <t>夢境精靈</t>
-  </si>
-  <si>
-    <t>夢境精靈會進入心靈有不安的人的夢境
-透過探索夢境
-深入到他的內心深處
-把他從不安中拯救</t>
-  </si>
-  <si>
-    <t>夢境主人</t>
-  </si>
-  <si>
-    <t>大學生，受到各種壓力壓迫</t>
-  </si>
-  <si>
-    <t>陰影</t>
-  </si>
-  <si>
-    <t>夢境的守衛，驅除外來者</t>
-  </si>
-  <si>
-    <t>關卡數</t>
-  </si>
-  <si>
     <t>THE WORLD</t>
   </si>
   <si>
@@ -496,12 +461,6 @@
     <t>镜头跟随</t>
   </si>
   <si>
-    <t>地圖</t>
-  </si>
-  <si>
-    <t>大地圖</t>
-  </si>
-  <si>
     <t>影子形態(小遊戲、解迷)</t>
   </si>
   <si>
@@ -562,20 +521,12 @@
     <t>綿羊</t>
   </si>
   <si>
-    <t>梦境</t>
-  </si>
-  <si>
     <t>散架平台</t>
   </si>
   <si>
     <t>向上泡泡</t>
   </si>
   <si>
-    <t xml:space="preserve">表層夢境
-深層夢境
-</t>
-  </si>
-  <si>
     <t>電梯</t>
   </si>
   <si>
@@ -606,9 +557,6 @@
     <t>Resume</t>
   </si>
   <si>
-    <t>以夢境的各種機關來解迷和戰鬥2d橫版遊戲</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -618,9 +566,6 @@
     <t>完成</t>
   </si>
   <si>
-    <t>追上一個白影（夢境主人）\ 收集蝴蝶</t>
-  </si>
-  <si>
     <t>接近縮放</t>
   </si>
   <si>
@@ -634,6 +579,84 @@
   </si>
   <si>
     <t>尖刺荊棘</t>
+  </si>
+  <si>
+    <t>透过跑酷和解谜深入主人的梦境，打败其梦境的阴影</t>
+  </si>
+  <si>
+    <t>游戏目标</t>
+  </si>
+  <si>
+    <t>游戏简介</t>
+  </si>
+  <si>
+    <t>本作是一款2d平台跳跃游戏，玩家会扮演梦境精灵，在大地图中跑酷进入5个小房间，在五个房间中，玩家将会看到梦境主人的经历、内心渴望等。随着探索的深入，玩家会逐渐进入梦境主人的深层梦境，玩家将会遇见更强大的敌人和怪物，最终进入主人梦境的最深处，打败他内心的阴影，拯救陷入焦虑不安中的主人</t>
+  </si>
+  <si>
+    <t>梦境精灵</t>
+  </si>
+  <si>
+    <t>梦境精灵会进入心灵有不安的人的梦境
+透过探索梦境
+深入到他的内心深处
+把他从不安中拯救</t>
+  </si>
+  <si>
+    <t>梦境主人</t>
+  </si>
+  <si>
+    <t>大学生，受到各种压力压迫</t>
+  </si>
+  <si>
+    <t>阴影</t>
+  </si>
+  <si>
+    <t>梦境的守卫，驱除外来者</t>
+  </si>
+  <si>
+    <t>预计游玩时长</t>
+  </si>
+  <si>
+    <t>20-40分钟</t>
+  </si>
+  <si>
+    <t>关卡数</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>大地图</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>监狱</t>
+  </si>
+  <si>
+    <t>夹子</t>
+  </si>
+  <si>
+    <t>灯光杀</t>
+  </si>
+  <si>
+    <t>左右移动平台</t>
+  </si>
+  <si>
+    <t>推箱子</t>
+  </si>
+  <si>
+    <t>踩到指定平台</t>
+  </si>
+  <si>
+    <t>钥匙/门</t>
+  </si>
+  <si>
+    <t>以夢境的各種機關來解迷和戰鬥2d橫版跑酷遊戲</t>
+  </si>
+  <si>
+    <t>SavePoint</t>
   </si>
 </sst>
 </file>
@@ -704,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,6 +758,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,7 +1040,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
@@ -1133,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1147,94 +1173,85 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="103.8" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="79.2">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33.6" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.2" customHeight="1">
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
-        <v>75</v>
+      <c r="A6" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>192</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:A7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -1246,207 +1263,252 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>101</v>
+      <c r="A4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>179</v>
+      <c r="B40" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A3:A16"/>
+  <mergeCells count="4">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1454,11 +1516,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EE840-3FF0-4F96-940A-6A3B5E94EA7E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.6"/>
@@ -1471,13 +1561,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1486,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1495,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1507,55 +1597,55 @@
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.2" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>29</v>
@@ -1570,60 +1660,60 @@
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>38</v>
@@ -1638,7 +1728,7 @@
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1654,11 +1744,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1673,13 +1763,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1694,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1709,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1736,24 +1826,24 @@
     <row r="5" spans="1:6">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1762,10 +1852,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1780,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
@@ -1792,57 +1882,57 @@
     <row r="9" spans="1:6" ht="22.2" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.2" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.2" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.2" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.2" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.2" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.2" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1860,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1869,18 +1959,18 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.2" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -1892,30 +1982,30 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.2" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="22.2" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1947,65 +2037,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2014,11 +2104,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2031,48 +2121,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -2102,7 +2192,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>24</v>
@@ -2184,17 +2274,17 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2204,7 +2294,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2239,33 +2329,33 @@
         <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00243224-FE6C-4E9F-96E4-DBA9E04E16D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716166A-849A-4E20-A95F-0FC794403D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
     <sheet name="背景策划" sheetId="1" r:id="rId2"/>
     <sheet name="遊戲機制" sheetId="9" r:id="rId3"/>
-    <sheet name="小关卡" sheetId="12" r:id="rId4"/>
-    <sheet name="美术需求" sheetId="10" r:id="rId5"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId6"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId7"/>
-    <sheet name="UI" sheetId="11" r:id="rId8"/>
-    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="美术需求" sheetId="10" r:id="rId4"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId5"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId6"/>
+    <sheet name="UI" sheetId="11" r:id="rId7"/>
+    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="197">
   <si>
     <t>移动</t>
   </si>
@@ -266,6 +265,42 @@
     <t>劉健泓</t>
   </si>
   <si>
+    <t>遊戲目標</t>
+  </si>
+  <si>
+    <t>每個關卡都會看到白影走向某個門（提示玩家目的地）</t>
+  </si>
+  <si>
+    <t>預計遊玩時長</t>
+  </si>
+  <si>
+    <t>20-40分鐘</t>
+  </si>
+  <si>
+    <t>夢境精靈</t>
+  </si>
+  <si>
+    <t>夢境精靈會進入心靈有不安的人的夢境
+透過探索夢境
+深入到他的內心深處
+把他從不安中拯救</t>
+  </si>
+  <si>
+    <t>夢境主人</t>
+  </si>
+  <si>
+    <t>大學生，受到各種壓力壓迫</t>
+  </si>
+  <si>
+    <t>陰影</t>
+  </si>
+  <si>
+    <t>夢境的守衛，驅除外來者</t>
+  </si>
+  <si>
+    <t>關卡數</t>
+  </si>
+  <si>
     <t>THE WORLD</t>
   </si>
   <si>
@@ -461,6 +496,12 @@
     <t>镜头跟随</t>
   </si>
   <si>
+    <t>地圖</t>
+  </si>
+  <si>
+    <t>大地圖</t>
+  </si>
+  <si>
     <t>影子形態(小遊戲、解迷)</t>
   </si>
   <si>
@@ -521,12 +562,20 @@
     <t>綿羊</t>
   </si>
   <si>
+    <t>梦境</t>
+  </si>
+  <si>
     <t>散架平台</t>
   </si>
   <si>
     <t>向上泡泡</t>
   </si>
   <si>
+    <t xml:space="preserve">表層夢境
+深層夢境
+</t>
+  </si>
+  <si>
     <t>電梯</t>
   </si>
   <si>
@@ -557,6 +606,9 @@
     <t>Resume</t>
   </si>
   <si>
+    <t>以夢境的各種機關來解迷和戰鬥2d橫版遊戲</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
@@ -566,6 +618,9 @@
     <t>完成</t>
   </si>
   <si>
+    <t>追上一個白影（夢境主人）\ 收集蝴蝶</t>
+  </si>
+  <si>
     <t>接近縮放</t>
   </si>
   <si>
@@ -579,84 +634,6 @@
   </si>
   <si>
     <t>尖刺荊棘</t>
-  </si>
-  <si>
-    <t>透过跑酷和解谜深入主人的梦境，打败其梦境的阴影</t>
-  </si>
-  <si>
-    <t>游戏目标</t>
-  </si>
-  <si>
-    <t>游戏简介</t>
-  </si>
-  <si>
-    <t>本作是一款2d平台跳跃游戏，玩家会扮演梦境精灵，在大地图中跑酷进入5个小房间，在五个房间中，玩家将会看到梦境主人的经历、内心渴望等。随着探索的深入，玩家会逐渐进入梦境主人的深层梦境，玩家将会遇见更强大的敌人和怪物，最终进入主人梦境的最深处，打败他内心的阴影，拯救陷入焦虑不安中的主人</t>
-  </si>
-  <si>
-    <t>梦境精灵</t>
-  </si>
-  <si>
-    <t>梦境精灵会进入心灵有不安的人的梦境
-透过探索梦境
-深入到他的内心深处
-把他从不安中拯救</t>
-  </si>
-  <si>
-    <t>梦境主人</t>
-  </si>
-  <si>
-    <t>大学生，受到各种压力压迫</t>
-  </si>
-  <si>
-    <t>阴影</t>
-  </si>
-  <si>
-    <t>梦境的守卫，驱除外来者</t>
-  </si>
-  <si>
-    <t>预计游玩时长</t>
-  </si>
-  <si>
-    <t>20-40分钟</t>
-  </si>
-  <si>
-    <t>关卡数</t>
-  </si>
-  <si>
-    <t>地图</t>
-  </si>
-  <si>
-    <t>大地图</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>监狱</t>
-  </si>
-  <si>
-    <t>夹子</t>
-  </si>
-  <si>
-    <t>灯光杀</t>
-  </si>
-  <si>
-    <t>左右移动平台</t>
-  </si>
-  <si>
-    <t>推箱子</t>
-  </si>
-  <si>
-    <t>踩到指定平台</t>
-  </si>
-  <si>
-    <t>钥匙/门</t>
-  </si>
-  <si>
-    <t>以夢境的各種機關來解迷和戰鬥2d橫版跑酷遊戲</t>
-  </si>
-  <si>
-    <t>SavePoint</t>
   </si>
 </sst>
 </file>
@@ -727,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,9 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,7 +1014,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2"/>
@@ -1159,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1173,85 +1147,94 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="103.8" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="79.2">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33.6" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.2" customHeight="1">
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>181</v>
+      <c r="A6" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>85</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -1263,252 +1246,207 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>144</v>
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="5">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1516,39 +1454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EE840-3FF0-4F96-940A-6A3B5E94EA7E}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="56.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.6"/>
@@ -1561,13 +1471,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1576,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1585,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1597,55 +1507,55 @@
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.2" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>29</v>
@@ -1660,60 +1570,60 @@
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="8" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" s="8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>38</v>
@@ -1728,7 +1638,7 @@
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1744,11 +1654,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1763,13 +1673,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1784,7 +1694,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1799,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1826,24 +1736,24 @@
     <row r="5" spans="1:6">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1852,10 +1762,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1870,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
@@ -1882,57 +1792,57 @@
     <row r="9" spans="1:6" ht="22.2" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.2" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.2" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.2" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.2" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.2" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.2" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1950,7 +1860,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1959,18 +1869,18 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.2" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -1982,30 +1892,30 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.2" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="22.2" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2037,65 +1947,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2104,11 +2014,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2121,48 +2031,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -2192,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>24</v>
@@ -2274,17 +2184,17 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2294,7 +2204,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2329,33 +2239,33 @@
         <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00243224-FE6C-4E9F-96E4-DBA9E04E16D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E00EAC-8BCD-4D06-BA88-2AB07A60B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="211">
   <si>
     <t>移动</t>
   </si>
@@ -657,6 +657,24 @@
   </si>
   <si>
     <t>SavePoint</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Option界面</t>
+  </si>
+  <si>
+    <t>改变键位</t>
+  </si>
+  <si>
+    <t>调整音量、音效</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1250,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2106,20 +2124,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>165</v>
       </c>
@@ -2127,25 +2146,25 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
@@ -2153,22 +2172,49 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E00EAC-8BCD-4D06-BA88-2AB07A60B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA2707-9CF0-4A2A-B1A2-03BF0271EFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
-    <sheet name="背景策划" sheetId="1" r:id="rId2"/>
-    <sheet name="遊戲機制" sheetId="9" r:id="rId3"/>
-    <sheet name="小关卡" sheetId="12" r:id="rId4"/>
-    <sheet name="美术需求" sheetId="10" r:id="rId5"/>
-    <sheet name="系统策划" sheetId="3" r:id="rId6"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId7"/>
-    <sheet name="UI" sheetId="11" r:id="rId8"/>
-    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="优化和添加功能" sheetId="13" r:id="rId2"/>
+    <sheet name="背景策划" sheetId="1" r:id="rId3"/>
+    <sheet name="遊戲機制" sheetId="9" r:id="rId4"/>
+    <sheet name="小关卡" sheetId="12" r:id="rId5"/>
+    <sheet name="美术需求" sheetId="10" r:id="rId6"/>
+    <sheet name="系统策划" sheetId="3" r:id="rId7"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId8"/>
+    <sheet name="UI" sheetId="11" r:id="rId9"/>
+    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="243">
   <si>
     <t>移动</t>
   </si>
@@ -675,13 +676,109 @@
   </si>
   <si>
     <t>调整音量、音效</t>
+  </si>
+  <si>
+    <t>音效收集</t>
+  </si>
+  <si>
+    <t>玩家自定义键位</t>
+  </si>
+  <si>
+    <t>存储系统</t>
+  </si>
+  <si>
+    <t>战斗系统优化</t>
+  </si>
+  <si>
+    <t>打击感优化</t>
+  </si>
+  <si>
+    <t>交互反馈优化</t>
+  </si>
+  <si>
+    <t>Boss第二阶段</t>
+  </si>
+  <si>
+    <t>美术优化</t>
+  </si>
+  <si>
+    <t>魔力系统</t>
+  </si>
+  <si>
+    <t>过场动画</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>快乐</t>
+  </si>
+  <si>
+    <t>焦虑</t>
+  </si>
+  <si>
+    <t>悲伤</t>
+  </si>
+  <si>
+    <t>愤怒</t>
+  </si>
+  <si>
+    <t>战斗多</t>
+  </si>
+  <si>
+    <t>解谜多</t>
+  </si>
+  <si>
+    <t>Speed Run</t>
+  </si>
+  <si>
+    <t>抽象</t>
+  </si>
+  <si>
+    <t>跑酷多</t>
+  </si>
+  <si>
+    <t>彩蛋</t>
+  </si>
+  <si>
+    <t>队长的照片房间</t>
+  </si>
+  <si>
+    <t>额外战斗技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 切换场景</t>
+  </si>
+  <si>
+    <t>数学题？</t>
+  </si>
+  <si>
+    <t>额外跑酷技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 加速/时间停止/追逐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +821,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -745,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +869,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,9 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1174,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1077,19 +1182,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1097,19 +1202,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1117,13 +1222,13 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1175,12 +1280,365 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.05" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914EB04-9B35-404C-B40B-50CA7A01795A}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="61.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1264,7 +1722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -1300,7 +1758,7 @@
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1308,79 +1766,79 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
         <v>179</v>
       </c>
@@ -1428,7 +1886,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1436,13 +1894,13 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1450,13 +1908,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1464,37 +1922,37 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1502,13 +1960,13 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>143</v>
       </c>
@@ -1533,7 +1991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EE840-3FF0-4F96-940A-6A3B5E94EA7E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1561,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1578,7 +2036,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -1589,7 +2047,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +2056,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1607,19 +2065,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
         <v>123</v>
       </c>
@@ -1628,13 +2086,13 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1642,13 +2100,13 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.2" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1656,13 +2114,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1670,67 +2128,67 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1738,13 +2196,13 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="8" t="s">
         <v>135</v>
       </c>
@@ -1762,7 +2220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -1780,7 +2238,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1797,7 +2255,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +2270,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1830,7 +2288,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +2300,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
@@ -1851,7 +2309,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1868,7 +2326,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>155</v>
       </c>
@@ -1883,7 +2341,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +2356,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>137</v>
       </c>
@@ -1907,7 +2365,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>138</v>
       </c>
@@ -1916,7 +2374,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>160</v>
       </c>
@@ -1925,13 +2383,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>162</v>
       </c>
@@ -1940,7 +2398,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -1949,7 +2407,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.2" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1957,13 +2415,13 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1972,7 +2430,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1981,13 +2439,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.2" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1995,7 +2453,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.2" customHeight="1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2004,13 +2462,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.2" customHeight="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.2" customHeight="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>173</v>
       </c>
@@ -2037,7 +2495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2122,7 +2580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2139,7 +2597,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2147,25 +2605,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2173,19 +2631,19 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2193,7 +2651,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>206</v>
       </c>
@@ -2202,7 +2660,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>207</v>
       </c>
@@ -2218,199 +2676,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="100.2" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA2707-9CF0-4A2A-B1A2-03BF0271EFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9F483-309D-4614-BCCC-21857E701F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1726,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9F483-309D-4614-BCCC-21857E701F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3A9F2-412B-41CF-9CC9-0F335FC4B930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="小关卡" sheetId="12" r:id="rId5"/>
     <sheet name="美术需求" sheetId="10" r:id="rId6"/>
     <sheet name="系统策划" sheetId="3" r:id="rId7"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId8"/>
-    <sheet name="UI" sheetId="11" r:id="rId9"/>
-    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId9"/>
+    <sheet name="UI" sheetId="11" r:id="rId10"/>
+    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="249">
   <si>
     <t>移动</t>
   </si>
@@ -772,6 +773,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 加速/时间停止/追逐</t>
+  </si>
+  <si>
+    <t>旋轉</t>
+  </si>
+  <si>
+    <t>冰(温度)</t>
+  </si>
+  <si>
+    <t>聊天記錄</t>
+  </si>
+  <si>
+    <t>分數GPA</t>
+  </si>
+  <si>
+    <t>移動(單個/多個)</t>
+  </si>
+  <si>
+    <t>日月改變(温度)(明暗障礙物)</t>
   </si>
 </sst>
 </file>
@@ -1281,6 +1300,104 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -1479,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914EB04-9B35-404C-B40B-50CA7A01795A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1726,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -2023,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2225,7 +2342,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -2496,11 +2613,70 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C90C87E-AFF8-4BE9-A25B-802E8A5FF7BE}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="1" width="71.125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -2578,102 +2754,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/游戏策划.xlsx
+++ b/游戏策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Sweet_Dream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3A9F2-412B-41CF-9CC9-0F335FC4B930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9F483-309D-4614-BCCC-21857E701F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程表" sheetId="7" r:id="rId1"/>
@@ -20,10 +20,9 @@
     <sheet name="小关卡" sheetId="12" r:id="rId5"/>
     <sheet name="美术需求" sheetId="10" r:id="rId6"/>
     <sheet name="系统策划" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
-    <sheet name="关卡设计" sheetId="8" r:id="rId9"/>
-    <sheet name="UI" sheetId="11" r:id="rId10"/>
-    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="关卡设计" sheetId="8" r:id="rId8"/>
+    <sheet name="UI" sheetId="11" r:id="rId9"/>
+    <sheet name="时间梦境" sheetId="6" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="243">
   <si>
     <t>移动</t>
   </si>
@@ -773,24 +772,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 加速/时间停止/追逐</t>
-  </si>
-  <si>
-    <t>旋轉</t>
-  </si>
-  <si>
-    <t>冰(温度)</t>
-  </si>
-  <si>
-    <t>聊天記錄</t>
-  </si>
-  <si>
-    <t>分數GPA</t>
-  </si>
-  <si>
-    <t>移動(單個/多個)</t>
-  </si>
-  <si>
-    <t>日月改變(温度)(明暗障礙物)</t>
   </si>
 </sst>
 </file>
@@ -1300,104 +1281,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
-  <cols>
-    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -1596,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914EB04-9B35-404C-B40B-50CA7A01795A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1843,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4EBE1-4F98-49D0-957C-BCBA222D8DD6}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="19.8"/>
@@ -2140,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D59B53-E025-472E-AA4F-CA221093659D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2342,7 +2225,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -2613,70 +2496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C90C87E-AFF8-4BE9-A25B-802E8A5FF7BE}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.2"/>
-  <cols>
-    <col min="1" max="1" width="71.125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997C269-5D82-4F85-AB85-A817CF582DB6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -2754,4 +2578,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0EF9D-A917-4976-A985-BA52013DC77B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>